--- a/CH_nais_einheiten_unique.xlsx
+++ b/CH_nais_einheiten_unique.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9EA42E-6BFE-456A-ACD2-DD6097532CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50934463-1561-49F2-B275-3C0A095CE9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$2382</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -12512,8 +12515,8 @@
   <dimension ref="A1:M2382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2291" sqref="A2291:A2382"/>
+      <pane ySplit="1" topLeftCell="A2138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
